--- a/src/test/resources/testdata/testData.xlsx
+++ b/src/test/resources/testdata/testData.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jvk5400\eclipse-workspace\New Work\HR_WorkForce\src\test\resources\testdata\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1F91231-0FF7-43A7-A038-1D7B8C78D833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6314A3-D8DB-41C5-A3EE-D86A3D02117D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="1" xr2:uid="{C1D4DE8D-E9A2-4051-A840-E8F134680D16}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" firstSheet="1" activeTab="3" xr2:uid="{C1D4DE8D-E9A2-4051-A840-E8F134680D16}"/>
   </bookViews>
   <sheets>
     <sheet name="InputSSS_message" sheetId="1" r:id="rId1"/>
     <sheet name="PersonalInfo" sheetId="2" r:id="rId2"/>
     <sheet name="AddFamilyMember" sheetId="3" r:id="rId3"/>
+    <sheet name="Employment" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="64">
   <si>
     <t>inputSSSnumber</t>
   </si>
@@ -140,9 +141,6 @@
     <t>Type B-</t>
   </si>
   <si>
-    <t>Roman Catholic</t>
-  </si>
-  <si>
     <t>test1@gmail.com</t>
   </si>
   <si>
@@ -176,9 +174,6 @@
     <t>Travis</t>
   </si>
   <si>
-    <t>Brother</t>
-  </si>
-  <si>
     <t>Yes</t>
   </si>
   <si>
@@ -186,6 +181,54 @@
   </si>
   <si>
     <t>Mother</t>
+  </si>
+  <si>
+    <t>Others</t>
+  </si>
+  <si>
+    <t>Company</t>
+  </si>
+  <si>
+    <t>Branch</t>
+  </si>
+  <si>
+    <t>Division</t>
+  </si>
+  <si>
+    <t>Department</t>
+  </si>
+  <si>
+    <t>Position</t>
+  </si>
+  <si>
+    <t>SM RETAIL, INC.</t>
+  </si>
+  <si>
+    <t>HEAD OFFICE 1</t>
+  </si>
+  <si>
+    <t>INFORMATION TECHNOLOGY SERVICES</t>
+  </si>
+  <si>
+    <t>Full-Time</t>
+  </si>
+  <si>
+    <t>test@gmail.com</t>
+  </si>
+  <si>
+    <t>WorkType</t>
+  </si>
+  <si>
+    <t>EmploymentStartDate</t>
+  </si>
+  <si>
+    <t>WorkEmailAddress</t>
+  </si>
+  <si>
+    <t>ITS</t>
+  </si>
+  <si>
+    <t>MANAGER</t>
   </si>
 </sst>
 </file>
@@ -594,8 +637,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9E6E600C-C0D3-4C63-A3F1-98547FDA3721}">
   <dimension ref="A1:W2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -716,7 +759,7 @@
         <v>33</v>
       </c>
       <c r="L2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M2">
         <v>56</v>
@@ -728,13 +771,13 @@
         <v>7</v>
       </c>
       <c r="P2" t="s">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="Q2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" t="s">
         <v>35</v>
-      </c>
-      <c r="R2" t="s">
-        <v>36</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -762,10 +805,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A901D7-74F4-41E4-9AC5-02DB74742C6A}">
-  <dimension ref="A1:M3"/>
+  <dimension ref="A1:M2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -800,110 +843,151 @@
         <v>9</v>
       </c>
       <c r="F1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G1" t="s">
         <v>7</v>
       </c>
       <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
         <v>38</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>39</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>40</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>41</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>42</v>
-      </c>
-      <c r="M1" t="s">
-        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>43</v>
+      </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C2" t="s">
         <v>25</v>
       </c>
       <c r="D2" s="4">
-        <v>35836</v>
+        <v>33095</v>
       </c>
       <c r="E2" t="s">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="F2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="G2" t="s">
         <v>29</v>
       </c>
       <c r="H2" s="4">
-        <v>36566</v>
+        <v>38393</v>
       </c>
       <c r="I2" s="4">
-        <v>43961</v>
+        <v>44967</v>
       </c>
       <c r="J2" t="s">
+        <v>45</v>
+      </c>
+      <c r="K2" t="s">
         <v>32</v>
-      </c>
-      <c r="K2" t="s">
-        <v>47</v>
       </c>
       <c r="L2" t="s">
         <v>32</v>
       </c>
       <c r="M2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
-      <c r="A3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B3" t="s">
-        <v>45</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
-      </c>
-      <c r="D3" s="4">
-        <v>33095</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3" t="s">
-        <v>49</v>
-      </c>
-      <c r="G3" t="s">
-        <v>29</v>
-      </c>
-      <c r="H3" s="4">
-        <v>38393</v>
-      </c>
-      <c r="I3" s="4">
-        <v>44967</v>
-      </c>
-      <c r="J3" t="s">
-        <v>47</v>
-      </c>
-      <c r="K3" t="s">
-        <v>32</v>
-      </c>
-      <c r="L3" t="s">
-        <v>32</v>
-      </c>
-      <c r="M3" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{122D1DB9-7FBB-40F6-89DE-1BB419BD82A6}">
+  <dimension ref="A1:H2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.36328125" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="34.08984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.90625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.81640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="35.54296875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>52</v>
+      </c>
+      <c r="E1" t="s">
+        <v>59</v>
+      </c>
+      <c r="F1" t="s">
+        <v>60</v>
+      </c>
+      <c r="G1" t="s">
+        <v>61</v>
+      </c>
+      <c r="H1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" t="s">
+        <v>57</v>
+      </c>
+      <c r="F2" s="4">
+        <v>45056</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="H2" t="s">
+        <v>63</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="G2" r:id="rId1" xr:uid="{25C57F42-0FBF-4B1A-B142-41677D0638B4}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>